--- a/webpack.xlsx
+++ b/webpack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>1.基本配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>拆分配置和merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动本地服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理ES6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,49 +174,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="5582429" cy="1400371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>172033</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="q7.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="4172533" cy="3715269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -610,10 +575,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -626,9 +591,18 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>